--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4158801.46094209</v>
+        <v>4230453.253502137</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.881805149</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7311457.08035271</v>
+        <v>7216349.556204976</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>111.9019209508891</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>110.2530958569708</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>88.85876175969173</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>112.7016475500168</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>102.5637353995021</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,19 +943,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>283.3335739019144</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>155.4526127311941</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>115.2741345058928</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>168.2959226233835</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>270.7773459850751</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>148.8271244776259</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>18.01892853764489</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274067</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>162.3035289410744</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.85848142009615</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1660,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498009</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.7568420184989</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1825,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,13 +2010,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>122.9684277897099</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>248.9163333788967</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>22.03675998759967</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>73.66308659887204</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>54.54406566003444</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>152.3299341337347</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2609,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>54.92853024947654</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>78.3122789930156</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2770,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689363</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898722</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857175</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692856</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329064</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373699</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789552</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415142</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539629</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689372</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="38">
@@ -3500,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527407</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>220.4334597379113</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898666</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373699</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174147</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.41520383435927</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>546.109828622464</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C2" t="n">
-        <v>433.0775852377275</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4361,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,25 +4415,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.6044479702274</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>359.6044479702274</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>359.6044479702274</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.6044479702274</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>864.6405432696254</v>
+        <v>1525.74665604171</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.014288776631</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1628.245633506517</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>1254.779875245437</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>864.6405432696254</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="6">
@@ -4647,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>571.1061430638139</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>571.1061430638139</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>582.2735453571344</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>327.5890571512475</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.1194880117303</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>962.1194880117303</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>962.1194880117303</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>962.1194880117303</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>551.1335832221228</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4802,13 +4804,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312744</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312744</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.858660051664</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1348.719328075852</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4899,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>249.9299350185088</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>249.9299350185088</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>249.9299350185088</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>249.9299350185088</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>249.9299350185088</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620389</v>
+        <v>680.5111271432434</v>
       </c>
       <c r="Y10" t="n">
-        <v>249.9299350185088</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5069,22 +5071,22 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2379.156885434021</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561.6946978510161</v>
+        <v>607.1380464627241</v>
       </c>
       <c r="C13" t="n">
-        <v>561.6946978510161</v>
+        <v>607.1380464627241</v>
       </c>
       <c r="D13" t="n">
-        <v>411.5780584386804</v>
+        <v>457.0214070503883</v>
       </c>
       <c r="E13" t="n">
-        <v>411.5780584386804</v>
+        <v>309.1083134679952</v>
       </c>
       <c r="F13" t="n">
-        <v>411.5780584386804</v>
+        <v>309.1083134679952</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>309.1083134679952</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>158.6903050159385</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V13" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W13" t="n">
-        <v>964.135741824786</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X13" t="n">
-        <v>964.135741824786</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y13" t="n">
-        <v>743.3431626812559</v>
+        <v>788.7865112929638</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5264,25 +5266,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5303,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5358,25 +5360,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>316.9584588710876</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>238.3856187516988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>238.3856187516988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>238.3856187516988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>238.3856187516988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>238.3856187516988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>238.3856187516988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188992</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>420.0340835819385</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X16" t="n">
-        <v>420.0340835819385</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.0340835819385</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899127</v>
@@ -5537,28 +5539,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>509.2863307027309</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C19" t="n">
-        <v>509.2863307027309</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D19" t="n">
-        <v>359.1696912903951</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>359.1696912903951</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
         <v>359.1696912903951</v>
@@ -5668,7 +5670,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="V19" t="n">
-        <v>1247.485630781239</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="W19" t="n">
-        <v>958.0684607442784</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="X19" t="n">
-        <v>730.078909846261</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="Y19" t="n">
-        <v>509.2863307027309</v>
+        <v>1153.913158293453</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5759,28 +5761,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2525.058920465858</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L21" t="n">
-        <v>3138.955990222747</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M21" t="n">
-        <v>3907.324136615208</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556162</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4166.027674239424</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C22" t="n">
-        <v>4166.027674239424</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>4015.911034827087</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E22" t="n">
-        <v>3867.997941244694</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>4637.069157803799</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U22" t="n">
-        <v>4614.809804280971</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V22" t="n">
-        <v>4614.809804280971</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="W22" t="n">
-        <v>4614.809804280971</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="X22" t="n">
-        <v>4386.820253382954</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y22" t="n">
-        <v>4166.027674239424</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6002,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L24" t="n">
-        <v>3138.955990222747</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M24" t="n">
-        <v>3907.324136615208</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>4237.18676427924</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>4568.699189774859</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>376.9270045185177</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="C25" t="n">
-        <v>376.9270045185177</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="D25" t="n">
-        <v>376.9270045185177</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185177</v>
+        <v>578.9119678346448</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>432.0220203367344</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>263.846698656555</v>
       </c>
       <c r="H25" t="n">
         <v>208.7516828383384</v>
@@ -6148,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V25" t="n">
-        <v>933.2366688293934</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W25" t="n">
-        <v>933.2366688293934</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X25" t="n">
-        <v>779.3680484922876</v>
+        <v>726.8250614170379</v>
       </c>
       <c r="Y25" t="n">
-        <v>558.5754693487575</v>
+        <v>726.8250614170379</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,22 +6214,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,25 +6244,25 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6309,22 +6311,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.995055864554</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N27" t="n">
-        <v>1651.324348736746</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4184.086356507267</v>
+        <v>345.2565865023499</v>
       </c>
       <c r="C28" t="n">
-        <v>4184.086356507267</v>
+        <v>176.320403574443</v>
       </c>
       <c r="D28" t="n">
-        <v>4184.086356507267</v>
+        <v>176.320403574443</v>
       </c>
       <c r="E28" t="n">
-        <v>4036.173262924874</v>
+        <v>176.320403574443</v>
       </c>
       <c r="F28" t="n">
-        <v>3889.283315426963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>4749.779469576118</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W28" t="n">
-        <v>4460.362299539157</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X28" t="n">
-        <v>4460.362299539157</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y28" t="n">
-        <v>4239.569720395627</v>
+        <v>526.9050513325897</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6451,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6488,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3644.018355938592</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3973.880983602625</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083209</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504516</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6677,37 +6679,37 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823776</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619127</v>
@@ -6716,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263797</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2525.058920465857</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3138.955990222746</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3446.276123502707</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3899.235428472199</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.699189774858</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.721670557068</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3481.79397174047</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>3381.677879852604</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>3300.381331480309</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>3221.288328937957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>3143.218472480088</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>3043.863241839949</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>2962.265324427934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>2919.550824089922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>2999.384087782176</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3217.020063255132</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3532.182679494606</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>3871.199993490132</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4209.194673746024</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4510.520222979765</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4754.570558813792</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4818.599560616159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4687.499641571752</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4532.5343174013</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4312.225769654899</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4126.361372489053</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>3905.764293492134</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>3746.594833634158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3594.622345530669</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822478</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>966.6932390011339</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N36" t="n">
-        <v>1296.555866665167</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1966.019627967826</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2486.320249703573</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504506</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649694</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7184,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>329.1202010073252</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>943.0172707642139</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M39" t="n">
-        <v>1711.385417156675</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N39" t="n">
-        <v>2041.248044820708</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1943.227873734288</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3481.79397174047</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C40" t="n">
-        <v>3381.677879852604</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D40" t="n">
-        <v>3300.381331480309</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>3221.288328937957</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>3143.218472480088</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>3043.863241839949</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>2962.265324427934</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>2919.550824089922</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>2999.384087782176</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3217.020063255132</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3532.182679494606</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>3871.199993490133</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4209.194673746025</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4510.520222979766</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4754.570558813793</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4818.59956061616</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4687.499641571754</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4532.534317401301</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>4312.2257696549</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V40" t="n">
-        <v>4126.361372489055</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W40" t="n">
-        <v>3905.764293492135</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="X40" t="n">
-        <v>3746.594833634159</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="Y40" t="n">
-        <v>3594.622345530668</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.627437207831</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2525.058920465859</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>3138.955990222747</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M42" t="n">
-        <v>3446.276123502709</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>4250.68770176686</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O42" t="n">
-        <v>4568.69918977486</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108327</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7643,55 +7645,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>527.8045051785811</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>358.8683222506742</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7834,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>1298.996260473455</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>1009.579090436494</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>781.5895395384766</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y46" t="n">
-        <v>709.4529700088208</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8547,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.8724419039329</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9006,19 +9008,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>29.47535963978214</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>242.9997743936049</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>104.8749102765748</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>52.49733361305204</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>381.3739760657745</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9656,7 +9658,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9717,28 +9719,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>96.0374492781458</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,25 +9959,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>113.6026921294538</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10130,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,16 +10190,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720727</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>124.3400780863222</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928342</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>96.03744927814705</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.62661940943602</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10832,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119861</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10899,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>41.75994765618373</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>171.2966883299262</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,25 +11144,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>38.86002301949793</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298383</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>124.3400780863226</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>4.190039522303152</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>49.56076404417583</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>9.156986349037254</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>14.7411341369031</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>74.95238219389337</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23947,13 +23949,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>3.221309944931278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>264.2005924109777</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>152.0465687901651</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>94.36976270750168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24424,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>73.37972125530246</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>124.9034499324608</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>67.10876902991565</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24658,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>66.08953859867972</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>36.51615797628585</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26043,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>147.1694495177355</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>644297.0792599391</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>644297.0792599391</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>644297.0792599393</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>644297.0792599393</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>644297.0792599391</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="D2" t="n">
         <v>821041.7698642833</v>
       </c>
       <c r="E2" t="n">
+        <v>782058.119475418</v>
+      </c>
+      <c r="F2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="G2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="I2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="J2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="K2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="L2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="M2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="N2" t="n">
+        <v>782058.119475418</v>
+      </c>
+      <c r="O2" t="n">
         <v>782058.1194754179</v>
-      </c>
-      <c r="G2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="H2" t="n">
-        <v>782058.119475418</v>
-      </c>
-      <c r="I2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="J2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642844</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642844</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642847</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642845</v>
-      </c>
-      <c r="O2" t="n">
-        <v>821041.7698642844</v>
       </c>
       <c r="P2" t="n">
         <v>782058.1194754178</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230236</v>
       </c>
       <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="I4" t="n">
         <v>29303.54555230232</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>29303.54555230232</v>
+      </c>
+      <c r="K4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="K4" t="n">
-        <v>51722.33279362282</v>
-      </c>
-      <c r="L4" t="n">
-        <v>51722.33279362278</v>
-      </c>
       <c r="M4" t="n">
-        <v>51722.33279362276</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362277</v>
+        <v>29303.54555230238</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362274</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230225</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002536</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002543</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002543</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26275.96473549714</v>
+        <v>-26275.96473549682</v>
       </c>
       <c r="C6" t="n">
-        <v>563691.9144790474</v>
+        <v>563691.9144790476</v>
       </c>
       <c r="D6" t="n">
         <v>563691.9144790476</v>
       </c>
       <c r="E6" t="n">
-        <v>135607.2114975025</v>
+        <v>135607.2114975028</v>
       </c>
       <c r="F6" t="n">
-        <v>660767.247974399</v>
+        <v>660767.2479743988</v>
       </c>
       <c r="G6" t="n">
         <v>660767.2479743988</v>
       </c>
       <c r="H6" t="n">
-        <v>660767.2479743991</v>
+        <v>660767.2479743989</v>
       </c>
       <c r="I6" t="n">
+        <v>660767.2479743988</v>
+      </c>
+      <c r="J6" t="n">
+        <v>484344.028781806</v>
+      </c>
+      <c r="K6" t="n">
+        <v>660767.2479743988</v>
+      </c>
+      <c r="L6" t="n">
         <v>660767.2479743985</v>
       </c>
-      <c r="J6" t="n">
-        <v>484344.0287818057</v>
-      </c>
-      <c r="K6" t="n">
-        <v>617098.8191469237</v>
-      </c>
-      <c r="L6" t="n">
-        <v>671604.3312506364</v>
-      </c>
       <c r="M6" t="n">
-        <v>536803.3160167992</v>
+        <v>525966.2327405615</v>
       </c>
       <c r="N6" t="n">
-        <v>671604.3312506364</v>
+        <v>660767.247974399</v>
       </c>
       <c r="O6" t="n">
-        <v>671604.3312506364</v>
+        <v>660767.2479743989</v>
       </c>
       <c r="P6" t="n">
-        <v>660767.2479743989</v>
+        <v>660767.2479743988</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964061</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26753,10 +26755,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26820,16 +26822,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>253.3709708201185</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>238.9878728604422</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27588,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>163.2788815641363</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>105.883005802078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>262.7091563715054</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>44.4186845682205</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>56.69292621882477</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>171.0077397360849</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>245.4882473974115</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>78.46362273233791</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>18.48267778142502</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>207.6907268513923</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28327,25 +28329,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,22 +28377,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32464,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35495,7 +35497,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35504,13 +35506,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q12" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
@@ -35653,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35726,19 +35728,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>180.0507982277214</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>576.1943477916178</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315247</v>
@@ -35747,7 +35749,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>438.0694836745878</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>385.691907011065</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>663.7376783068827</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>345.2951542341702</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,25 +36679,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>446.7972655274668</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36850,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R29" t="n">
         <v>59.8253897034981</v>
@@ -36908,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>510.1640057735812</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415069</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>457.5346514843351</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>429.2320226761599</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>138.6396521945101</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081138</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>192.335386244123</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>378.3901032614508</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>425.9753597058697</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>321.2237252606061</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>457.5346514843356</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4230453.253502137</v>
+        <v>4223436.238610425</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>110.2530958569708</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V4" t="n">
-        <v>88.85876175969173</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>102.5637353995021</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>306.4883182098755</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>39.91569010595131</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>115.2741345058928</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>137.4930623465104</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>270.7773459850751</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>18.01892853764489</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.85848142009615</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498009</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>49.38162151975434</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>271.7818641996879</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>122.9684277897099</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431766</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>112.9041675380128</v>
       </c>
       <c r="X22" t="n">
-        <v>73.66308659887204</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>54.54406566003444</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>95.02525064967651</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>78.3122789930156</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>95.02525064967651</v>
       </c>
       <c r="Y31" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527407</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>220.4334597379113</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151917</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2135.941483343059</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="X2" t="n">
-        <v>2135.941483343059</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="Y2" t="n">
-        <v>2135.941483343059</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V4" t="n">
-        <v>411.0644718652463</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W4" t="n">
-        <v>411.0644718652463</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X4" t="n">
-        <v>411.0644718652463</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1525.74665604171</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4603,16 +4603,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2332.53624174076</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1979.767586470646</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1606.301828209567</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1216.162496233755</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.5995062532301</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>399.5905718782841</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>230.5907716166165</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>582.2735453571344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>327.5890571512475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.5995062532301</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2503.238520390624</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2503.238520390624</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2249.476735028716</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1918.413847685145</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1565.645192415031</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1192.179434153951</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>802.0401021781393</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5071,19 +5071,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5129,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5138,10 +5138,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.1380464627241</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>607.1380464627241</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>457.0214070503883</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>309.1083134679952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>309.1083134679952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>309.1083134679952</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>158.6903050159385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5232,19 +5232,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.579090436494</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X13" t="n">
-        <v>1009.579090436494</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>788.7865112929638</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5323,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
         <v>2612.943493278838</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5612,10 +5612,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>972.2646934632137</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
         <v>359.1696912903951</v>
@@ -5670,7 +5670,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1374.705737436983</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1374.705737436983</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1374.705737436983</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1374.705737436983</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>1374.705737436983</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X19" t="n">
-        <v>1374.705737436983</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y19" t="n">
-        <v>1153.913158293453</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805463</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,49 +5752,49 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,25 +5834,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1333.825180851559</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>711.072954880832</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>542.1367719529251</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.921157035281</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1187.921157035281</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W22" t="n">
-        <v>1187.921157035281</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.513998854602</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y22" t="n">
-        <v>892.7214197110717</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822457</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701563</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619849</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>726.8250614170379</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>726.8250614170379</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>726.8250614170379</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>578.9119678346448</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>432.0220203367344</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>263.846698656555</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150552</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170379</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y25" t="n">
-        <v>726.8250614170379</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="26">
@@ -6205,64 +6205,64 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>709.4934589365139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>345.2565865023499</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C28" t="n">
-        <v>176.320403574443</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>176.320403574443</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>176.320403574443</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W28" t="n">
-        <v>754.894602230607</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X28" t="n">
-        <v>526.9050513325897</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.9050513325897</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W31" t="n">
-        <v>441.900558318119</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201016</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6885,19 +6885,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6919,43 +6919,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7204,7 +7204,7 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1943.227873734288</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765186</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>786.0822064765186</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>563.4221461351941</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>563.4221461351941</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>563.4221461351941</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,61 +7399,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>709.4934589365143</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7602,19 +7602,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7645,31 +7645,31 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7839,19 +7839,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>241.9805482336712</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>242.9997743936049</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9482,10 +9482,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>381.3739760657745</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>96.0374492781458</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>176.7176547498449</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>96.03744927814705</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>171.2966883299262</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>49.56076404417583</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>79.43092547709131</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>99.23385149845802</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14.7411341369031</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>74.95238219389337</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>44.27839330891823</v>
       </c>
     </row>
     <row r="20">
@@ -24129,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>173.6188307985782</v>
       </c>
       <c r="X22" t="n">
-        <v>152.0465687901651</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>94.36976270750168</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>67.10876902991565</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24660,7 +24660,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>130.6844047393606</v>
       </c>
       <c r="Y31" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>66.08953859867972</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.51615797628585</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>615059.3414682898</v>
+        <v>615059.34146829</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754174</v>
       </c>
       <c r="F2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="G2" t="n">
+        <v>782058.1194754174</v>
+      </c>
+      <c r="H2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="I2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="G2" t="n">
-        <v>782058.1194754177</v>
-      </c>
-      <c r="H2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="I2" t="n">
-        <v>782058.1194754177</v>
-      </c>
       <c r="J2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="K2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="L2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="N2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="O2" t="n">
         <v>782058.1194754179</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,25 +26423,25 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230238</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230236</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
+        <v>29303.54555230234</v>
+      </c>
+      <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="H4" t="n">
-        <v>29303.54555230231</v>
-      </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
         <v>29303.54555230233</v>
@@ -26450,13 +26450,13 @@
         <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
+        <v>29303.54555230229</v>
+      </c>
+      <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="N4" t="n">
-        <v>29303.54555230238</v>
-      </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26275.96473549682</v>
+        <v>-26275.96473549693</v>
       </c>
       <c r="C6" t="n">
-        <v>563691.9144790476</v>
+        <v>563691.9144790474</v>
       </c>
       <c r="D6" t="n">
-        <v>563691.9144790476</v>
+        <v>563691.9144790474</v>
       </c>
       <c r="E6" t="n">
-        <v>135607.2114975028</v>
+        <v>134632.6202377807</v>
       </c>
       <c r="F6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.6567146769</v>
       </c>
       <c r="G6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.6567146768</v>
       </c>
       <c r="H6" t="n">
-        <v>660767.2479743989</v>
+        <v>659792.6567146771</v>
       </c>
       <c r="I6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.6567146771</v>
       </c>
       <c r="J6" t="n">
-        <v>484344.028781806</v>
+        <v>483369.437522084</v>
       </c>
       <c r="K6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.6567146771</v>
       </c>
       <c r="L6" t="n">
-        <v>660767.2479743985</v>
+        <v>659792.6567146771</v>
       </c>
       <c r="M6" t="n">
-        <v>525966.2327405615</v>
+        <v>524991.64148084</v>
       </c>
       <c r="N6" t="n">
-        <v>660767.247974399</v>
+        <v>659792.6567146771</v>
       </c>
       <c r="O6" t="n">
-        <v>660767.2479743989</v>
+        <v>659792.6567146773</v>
       </c>
       <c r="P6" t="n">
-        <v>660767.2479743988</v>
+        <v>659792.6567146773</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26715,13 +26715,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26740,25 +26740,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>238.9878728604422</v>
+        <v>111.3076844110286</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V4" t="n">
-        <v>163.2788815641363</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>262.7091563715054</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>21.2639402602594</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27785,19 +27785,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>116.2551987358438</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>171.0077397360849</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>36.92265046246112</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>78.46362273233791</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>141.7069916148869</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>207.6907268513923</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28329,25 +28329,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,22 +28377,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-8.682195192673604e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.503331289626657e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>576.1943477916178</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,22 +35971,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>663.7376783068827</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>345.2951542341702</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>425.9753597058693</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36852,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
         <v>59.8253897034981</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>429.2320226761599</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>378.3901032614508</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>425.9753597058697</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4223436.238610425</v>
+        <v>4228375.501459458</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800623</v>
       </c>
     </row>
     <row r="8">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>237.9332843063845</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>10.64007217348914</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>105.140635946629</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>306.4883182098755</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,13 +1071,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>39.91569010595131</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>14.46389722690851</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>328.3502413085465</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1183,7 +1183,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>137.4930623465104</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1308,13 +1308,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>14.46389722690827</v>
+        <v>59.66385641544528</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>105.0903281190979</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>172.7067178467367</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>49.38162151975434</v>
+        <v>88.14992207191457</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274061</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>61.4722606779437</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.3062600431766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>112.9041675380128</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>95.02525064967651</v>
+        <v>75.06705067831119</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>143.2925104849745</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>64.34190763938454</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2.199276135727716</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>95.02525064967651</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3562,7 +3562,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>179.9063415975609</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>224.895256723152</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>105.0903281190971</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4369,13 +4369,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.14692331494</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>110.3470539032191</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>110.3470539032191</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>829.562656169633</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C5" t="n">
-        <v>460.6001392292213</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>1142.561333289048</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>731.5754284994405</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>313.6116203976273</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2332.53624174076</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1979.767586470646</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1606.301828209567</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y5" t="n">
-        <v>1216.162496233755</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>546.4805193761945</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D7" t="n">
-        <v>546.4805193761945</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E7" t="n">
-        <v>546.4805193761945</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F7" t="n">
-        <v>399.5905718782841</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G7" t="n">
-        <v>230.5907716166165</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>114.2095034521276</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>406.4787970436502</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4804,10 +4804,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2503.238520390624</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2503.238520390624</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2249.476735028716</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1918.413847685145</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1565.645192415031</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1192.179434153951</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.0401021781393</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="9">
@@ -4956,10 +4956,10 @@
         <v>114.2095034521274</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="V13" t="n">
-        <v>835.416391538794</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="W13" t="n">
-        <v>545.9992215018333</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X13" t="n">
-        <v>318.0096706038159</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="14">
@@ -5278,28 +5278,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5320,7 +5320,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5345,40 +5345,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>441.900558318119</v>
+        <v>799.6537879979917</v>
       </c>
       <c r="C16" t="n">
-        <v>441.900558318119</v>
+        <v>799.6537879979917</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="X16" t="n">
-        <v>441.900558318119</v>
+        <v>1020.446367141522</v>
       </c>
       <c r="Y16" t="n">
-        <v>441.900558318119</v>
+        <v>799.6537879979917</v>
       </c>
     </row>
     <row r="17">
@@ -5494,34 +5494,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632138</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>822.148054050878</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684849</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X19" t="n">
-        <v>1498.916270557902</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y19" t="n">
-        <v>1322.84934122136</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,13 +5752,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5767,34 +5767,34 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W22" t="n">
-        <v>895.8230080122524</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X22" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,43 +5974,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,13 +6056,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6071,19 +6071,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V25" t="n">
-        <v>1498.916270557902</v>
+        <v>644.108030042952</v>
       </c>
       <c r="W25" t="n">
-        <v>1209.499100520942</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="X25" t="n">
-        <v>1113.513998854602</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>892.7214197110717</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6241,13 +6241,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6268,10 +6268,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,13 +6293,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6308,19 +6308,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.3285960683721</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V28" t="n">
-        <v>1354.17636097712</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W28" t="n">
-        <v>1064.759190940159</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X28" t="n">
-        <v>836.769640042142</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y28" t="n">
-        <v>615.9770608986119</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6478,13 +6478,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,25 +6545,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1296.774769427265</v>
       </c>
       <c r="V31" t="n">
-        <v>1498.916270557902</v>
+        <v>1296.774769427265</v>
       </c>
       <c r="W31" t="n">
-        <v>1209.499100520942</v>
+        <v>1007.357599390305</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.513998854602</v>
+        <v>779.3680484922876</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.7214197110717</v>
+        <v>558.5754693487575</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,28 +6876,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028584</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851614</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590534</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7137,10 +7137,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,19 +7174,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7356,19 +7356,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1206.117589748454</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="U40" t="n">
-        <v>1271.749344574921</v>
+        <v>982.3321745379599</v>
       </c>
       <c r="V40" t="n">
-        <v>1017.064856369034</v>
+        <v>727.647686332073</v>
       </c>
       <c r="W40" t="n">
         <v>727.647686332073</v>
@@ -7402,40 +7402,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>985.400123145958</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>816.4639402180511</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>666.3473008057153</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>518.4342072233222</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>371.5442597254118</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>203.3689380452325</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>203.3689380452325</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>1167.048587976198</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7833,10 +7833,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571163</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229576</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297922</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>234.4116509503161</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>92.83048186450532</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>79.43092547709131</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>99.23385149845802</v>
+        <v>60.46555094629778</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>164.2373947110935</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.27839330891823</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>173.6188307985782</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>130.6844047393606</v>
+        <v>150.6426047107259</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24660,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>108.8451328388535</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>154.2427457127102</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>284.0380762628496</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>130.6844047393606</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>18.01446838604232</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>61.3420956754253</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>5.328917345174887</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>615059.34146829</v>
+        <v>615059.3414682898</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.7698642833</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642832</v>
-      </c>
-      <c r="C2" t="n">
-        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
         <v>782058.1194754175</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="H2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="I2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="I2" t="n">
-        <v>782058.1194754178</v>
-      </c>
       <c r="J2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="K2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="L2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="N2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754174</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754173</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754175</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,37 +26426,37 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
+        <v>29303.54555230225</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29303.54555230231</v>
+      </c>
+      <c r="G4" t="n">
         <v>29303.54555230233</v>
       </c>
-      <c r="F4" t="n">
-        <v>29303.54555230233</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29303.54555230234</v>
-      </c>
       <c r="H4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="K4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="L4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230231</v>
       </c>
       <c r="M4" t="n">
-        <v>29303.54555230229</v>
+        <v>29303.54555230239</v>
       </c>
       <c r="N4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26275.96473549693</v>
+        <v>-26275.96473549682</v>
       </c>
       <c r="C6" t="n">
-        <v>563691.9144790474</v>
+        <v>563691.9144790475</v>
       </c>
       <c r="D6" t="n">
         <v>563691.9144790474</v>
       </c>
       <c r="E6" t="n">
-        <v>134632.6202377807</v>
+        <v>135509.7523715303</v>
       </c>
       <c r="F6" t="n">
-        <v>659792.6567146769</v>
+        <v>660669.7888484267</v>
       </c>
       <c r="G6" t="n">
-        <v>659792.6567146768</v>
+        <v>660669.7888484264</v>
       </c>
       <c r="H6" t="n">
-        <v>659792.6567146771</v>
+        <v>660669.7888484268</v>
       </c>
       <c r="I6" t="n">
-        <v>659792.6567146771</v>
+        <v>660669.7888484267</v>
       </c>
       <c r="J6" t="n">
-        <v>483369.437522084</v>
+        <v>484246.5696558336</v>
       </c>
       <c r="K6" t="n">
-        <v>659792.6567146771</v>
+        <v>660669.7888484269</v>
       </c>
       <c r="L6" t="n">
-        <v>659792.6567146771</v>
+        <v>660669.7888484268</v>
       </c>
       <c r="M6" t="n">
-        <v>524991.64148084</v>
+        <v>525868.7736145894</v>
       </c>
       <c r="N6" t="n">
-        <v>659792.6567146771</v>
+        <v>660669.7888484264</v>
       </c>
       <c r="O6" t="n">
-        <v>659792.6567146773</v>
+        <v>660669.7888484262</v>
       </c>
       <c r="P6" t="n">
-        <v>659792.6567146773</v>
+        <v>660669.7888484264</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="O3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>85.98948845797264</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>111.3076844110286</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>124.3255496188491</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114811</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>218.7821368177281</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>21.2639402602594</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>116.2551987358438</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>120.5017245654297</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>53.58012876371532</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>36.92265046246112</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28028,13 +28028,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>141.7069916148869</v>
+        <v>96.50703242634987</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-8.682195192673604e-13</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734239</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36217,7 +36217,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,13 +36928,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349491</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>483.6693559063405</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
